--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-20.21556753743132</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.183375973019533</v>
+        <v>-9.10848800076486</v>
       </c>
       <c r="F2" t="n">
-        <v>5.267528226895291</v>
+        <v>5.487871683721541</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.71591139892717</v>
+        <v>-15.77783799136854</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.94016146602853</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.54591493100977</v>
+        <v>-9.445902829601824</v>
       </c>
       <c r="F3" t="n">
-        <v>5.153939407440475</v>
+        <v>5.382321538211545</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.24398625069431</v>
+        <v>-15.30724825802553</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.37212409222872</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.624377101940235</v>
+        <v>-9.51162618986729</v>
       </c>
       <c r="F4" t="n">
-        <v>5.328014666024065</v>
+        <v>5.546080062155855</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.51881668859395</v>
+        <v>-14.56297702607909</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.52906501870797</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.55338072698343</v>
+        <v>-10.4558823477211</v>
       </c>
       <c r="F5" t="n">
-        <v>5.384233014426437</v>
+        <v>5.60764007011765</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.66167671384899</v>
+        <v>-13.66072097574154</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.4275450138191</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.14004681732118</v>
+        <v>-11.04257462266453</v>
       </c>
       <c r="F6" t="n">
-        <v>5.610127607657579</v>
+        <v>5.82858577287462</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.90237551824024</v>
+        <v>-12.90228387212035</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.12018953038641</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.89781621349744</v>
+        <v>-11.82102985733072</v>
       </c>
       <c r="F7" t="n">
-        <v>5.909155804562602</v>
+        <v>6.134893290159643</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.68727889149964</v>
+        <v>-11.64513476865213</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.66802949326024</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.68733444406489</v>
+        <v>-12.61562790140076</v>
       </c>
       <c r="F8" t="n">
-        <v>6.147069131802448</v>
+        <v>6.384144551660424</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.01599724789582</v>
+        <v>-10.9531411019527</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.12996506592802</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.3942271513982</v>
+        <v>-13.33423821977742</v>
       </c>
       <c r="F9" t="n">
-        <v>6.215620429481726</v>
+        <v>6.451517542083946</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.932596095440148</v>
+        <v>-9.826404427090909</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.57406302147804</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.40500529999082</v>
+        <v>-14.35179818124205</v>
       </c>
       <c r="F10" t="n">
-        <v>6.392130856393877</v>
+        <v>6.620565356376313</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.350617049519743</v>
+        <v>-9.226371095551762</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.04047171967174</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.32027509935305</v>
+        <v>-15.26221073625</v>
       </c>
       <c r="F11" t="n">
-        <v>6.611348375175738</v>
+        <v>6.84339635074249</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.636602129440528</v>
+        <v>-8.480018187453483</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.587282073114865</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.4944713720161</v>
+        <v>-16.46786781264171</v>
       </c>
       <c r="F12" t="n">
-        <v>6.569636298321998</v>
+        <v>6.792860061773428</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.226066789232522</v>
+        <v>-8.060737188947206</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.235016322422548</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37041189364178</v>
+        <v>-17.37221863143394</v>
       </c>
       <c r="F13" t="n">
-        <v>6.415566078480566</v>
+        <v>6.650599099095233</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.883978008281063</v>
+        <v>-7.742816799041572</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.027265466949688</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.6697313045632</v>
+        <v>-18.69507800286478</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496109925562865</v>
+        <v>6.705796247875949</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.013758822997215</v>
+        <v>-6.85003957596143</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.971899937909199</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.71477200969262</v>
+        <v>-19.75537124080481</v>
       </c>
       <c r="F15" t="n">
-        <v>6.446490097792723</v>
+        <v>6.665812354997319</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.534043754573529</v>
+        <v>-6.372576383626522</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.083822761405103</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.66482805770531</v>
+        <v>-20.70731258042671</v>
       </c>
       <c r="F16" t="n">
-        <v>6.385846551029848</v>
+        <v>6.592155059209768</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.952968077549201</v>
+        <v>-5.783147817389173</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.356301652260454</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.66928262402537</v>
+        <v>-21.73423353842318</v>
       </c>
       <c r="F17" t="n">
-        <v>6.682779979480196</v>
+        <v>6.896393992645798</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.939692482467692</v>
+        <v>-5.798269427171366</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.777701326599324</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.49873237826009</v>
+        <v>-22.57481175007336</v>
       </c>
       <c r="F18" t="n">
-        <v>7.020718500430829</v>
+        <v>7.251143030445207</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.42890937940059</v>
+        <v>-5.276933928013834</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.331164666163826</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.11595590343042</v>
+        <v>-23.18986195297197</v>
       </c>
       <c r="F19" t="n">
-        <v>7.327209309955636</v>
+        <v>7.556926855616561</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.569582990081059</v>
+        <v>-4.414007155412827</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.987439012032159</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.00712277326103</v>
+        <v>-24.08997086564348</v>
       </c>
       <c r="F20" t="n">
-        <v>7.529590127283037</v>
+        <v>7.767058316226265</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.032379619879354</v>
+        <v>-3.900422299537597</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.723221328841227</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.24781166870332</v>
+        <v>-24.29023072991052</v>
       </c>
       <c r="F21" t="n">
-        <v>7.402961374197863</v>
+        <v>7.629667690205191</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.957504739927523</v>
+        <v>-3.839634737443463</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.50703464361272</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.93180593836646</v>
+        <v>-24.9733609075861</v>
       </c>
       <c r="F22" t="n">
-        <v>7.786304001403602</v>
+        <v>8.019504099620427</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.252552876768662</v>
+        <v>-4.166261508738845</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.326311429964878</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.11597536244102</v>
+        <v>-25.13866432326573</v>
       </c>
       <c r="F23" t="n">
-        <v>7.486333158693975</v>
+        <v>7.697459634319649</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.121983340528128</v>
+        <v>-4.046610953068311</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.16413766400216</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.51776504435075</v>
+        <v>-25.54028380523852</v>
       </c>
       <c r="F24" t="n">
-        <v>7.4625575367334</v>
+        <v>7.672898474188571</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.950343250273099</v>
+        <v>-3.885248320544036</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.022822234593635</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.63164189446809</v>
+        <v>-25.63079089478337</v>
       </c>
       <c r="F25" t="n">
-        <v>7.576015433159798</v>
+        <v>7.792221722288063</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.860006360665189</v>
+        <v>-3.791494339894436</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9011775989597738</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.95883163478566</v>
+        <v>-25.95815083503789</v>
       </c>
       <c r="F26" t="n">
-        <v>7.487040143047428</v>
+        <v>7.699004526054972</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.661108095893686</v>
+        <v>-3.596824888940811</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.8073336300658202</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.88043492536941</v>
+        <v>-25.89194305956729</v>
       </c>
       <c r="F27" t="n">
-        <v>7.443573697612897</v>
+        <v>7.642393408567349</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.734987960829546</v>
+        <v>-3.688418639621527</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.7444712518311373</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.84511189230243</v>
+        <v>-25.849118136972</v>
       </c>
       <c r="F28" t="n">
-        <v>7.28052215802204</v>
+        <v>7.490705987843111</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.92972287329738</v>
+        <v>-3.897463439095367</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.715249850149756</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.8044079227675</v>
+        <v>-25.77564413342423</v>
       </c>
       <c r="F29" t="n">
-        <v>7.231766422239453</v>
+        <v>7.438991391618293</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.713503491866274</v>
+        <v>-3.683718502901347</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.7173773920715567</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.6581276231169</v>
+        <v>-25.63255835566701</v>
       </c>
       <c r="F30" t="n">
-        <v>7.329827770523981</v>
+        <v>7.539356985202965</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.885850566474756</v>
+        <v>-3.851941502114685</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.7468151676071931</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.31110304399411</v>
+        <v>-25.29397831187713</v>
       </c>
       <c r="F31" t="n">
-        <v>7.172536844183484</v>
+        <v>7.378871536969087</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.228515408751252</v>
+        <v>-4.210880076823448</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.7985970826586708</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90393242561642</v>
+        <v>-24.87848098889211</v>
       </c>
       <c r="F32" t="n">
-        <v>7.270702930890746</v>
+        <v>7.491622449042032</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.190534638207405</v>
+        <v>-4.157738419588881</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.8670848134941469</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.73457039605586</v>
+        <v>-24.71223492740787</v>
       </c>
       <c r="F33" t="n">
-        <v>7.249126815807582</v>
+        <v>7.481934144939155</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.330425894071248</v>
+        <v>-4.297040521824846</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.949164556637763</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.320879810863</v>
+        <v>-24.30952878429922</v>
       </c>
       <c r="F34" t="n">
-        <v>7.355881453179016</v>
+        <v>7.595156379914402</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.371588094205635</v>
+        <v>-4.335191492305636</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.040911866757128</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.19917376364631</v>
+        <v>-24.18079217045653</v>
       </c>
       <c r="F35" t="n">
-        <v>7.251535799530459</v>
+        <v>7.489946634278291</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.537624678844405</v>
+        <v>-4.505142675494082</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.142577817891058</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.81930059669363</v>
+        <v>-23.81683924375939</v>
       </c>
       <c r="F36" t="n">
-        <v>7.38397753507736</v>
+        <v>7.627572921750516</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.513574118524154</v>
+        <v>-4.467960535423581</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.251684486090138</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27504047526024</v>
+        <v>-23.26274680289185</v>
       </c>
       <c r="F37" t="n">
-        <v>7.358473729141678</v>
+        <v>7.598377086413466</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.629336260250696</v>
+        <v>-4.583683400241597</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.36923858273475</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.75312891477767</v>
+        <v>-22.74774797830972</v>
       </c>
       <c r="F38" t="n">
-        <v>7.284816433354127</v>
+        <v>7.541870707348576</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.563324869322713</v>
+        <v>-4.529153958905808</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.492002433525521</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.55859038685246</v>
+        <v>-22.55823689467573</v>
       </c>
       <c r="F39" t="n">
-        <v>7.464809412822177</v>
+        <v>7.71665295028562</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.738185666076807</v>
+        <v>-4.725355209291915</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.619215843372304</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.86180493731296</v>
+        <v>-21.86196204494706</v>
       </c>
       <c r="F40" t="n">
-        <v>7.708404799495332</v>
+        <v>7.973497747434601</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.725289747777706</v>
+        <v>-4.702024725627959</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.745718636025407</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21373594664752</v>
+        <v>-21.20580201112543</v>
       </c>
       <c r="F41" t="n">
-        <v>7.709583106751087</v>
+        <v>7.9693867643423</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.741249264941771</v>
+        <v>-4.723168794717346</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.867227509261771</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.49241552158262</v>
+        <v>-20.49142050656665</v>
       </c>
       <c r="F42" t="n">
-        <v>7.749462261206985</v>
+        <v>7.997692323086111</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.080339908542475</v>
+        <v>-5.06254746898057</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.977555030270775</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.70768907385524</v>
+        <v>-19.68272205233607</v>
       </c>
       <c r="F43" t="n">
-        <v>7.846188194601657</v>
+        <v>8.099052931686755</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.235653897153872</v>
+        <v>-5.221749871535959</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.072500854059569</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00755199478826</v>
+        <v>-18.99248275421743</v>
       </c>
       <c r="F44" t="n">
-        <v>7.668708937279218</v>
+        <v>7.904187096190504</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.061473900147548</v>
+        <v>-5.033482556671938</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.150778273105353</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.56601408145104</v>
+        <v>-18.54181950579953</v>
       </c>
       <c r="F45" t="n">
-        <v>7.682194009206197</v>
+        <v>7.927203364586259</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.280560495900993</v>
+        <v>-5.241872741003692</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.212578304907995</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.85120053089848</v>
+        <v>-17.83805585884539</v>
       </c>
       <c r="F46" t="n">
-        <v>7.81502851383835</v>
+        <v>8.040844553252441</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.417767829682282</v>
+        <v>-5.377286429295665</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.264277812833233</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.68589711521885</v>
+        <v>-17.682741870234</v>
       </c>
       <c r="F47" t="n">
-        <v>7.68153939406411</v>
+        <v>7.908271894677122</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.709791644566981</v>
+        <v>-5.673303396547091</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.310378737438734</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.06415674556812</v>
+        <v>-17.0511299042406</v>
       </c>
       <c r="F48" t="n">
-        <v>7.651034328442888</v>
+        <v>7.870382770253167</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.802602979411978</v>
+        <v>-5.767698900035936</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.362893109317611</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.22445571820834</v>
+        <v>-16.19876862003287</v>
       </c>
       <c r="F49" t="n">
-        <v>7.608458159601596</v>
+        <v>7.822176911189931</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.067394804385887</v>
+        <v>-6.019987575795997</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.427749111332421</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.66334580301764</v>
+        <v>-15.64043427304462</v>
       </c>
       <c r="F50" t="n">
-        <v>7.352739300497002</v>
+        <v>7.564625129687497</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.288654722411058</v>
+        <v>-6.243865954389513</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.517838976854674</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.94267999309483</v>
+        <v>-14.91894364804278</v>
       </c>
       <c r="F51" t="n">
-        <v>7.222470887221827</v>
+        <v>7.41916964511592</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.252663981899153</v>
+        <v>-6.204366476716025</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.638803684492514</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.30283296861399</v>
+        <v>-14.26792888923795</v>
       </c>
       <c r="F52" t="n">
-        <v>7.116344680386796</v>
+        <v>7.304376333799666</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.48239461986292</v>
+        <v>-6.42247114975634</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.799631552950653</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.80323069217373</v>
+        <v>-13.77013335058984</v>
       </c>
       <c r="F53" t="n">
-        <v>7.140015563924637</v>
+        <v>7.334200599673117</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.52228686662166</v>
+        <v>-6.45698246004713</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.003169790942203</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.33135791315224</v>
+        <v>-13.31052805933105</v>
       </c>
       <c r="F54" t="n">
-        <v>6.915037431892416</v>
+        <v>7.109196283035213</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.73216957347737</v>
+        <v>-6.669640735105286</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.250640758124333</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.73641748741852</v>
+        <v>-12.71634698716215</v>
       </c>
       <c r="F55" t="n">
-        <v>6.91954118406997</v>
+        <v>7.101550378175645</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.034195907733149</v>
+        <v>-6.981787419457719</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.540146168651336</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.47099723190821</v>
+        <v>-12.44528394912706</v>
       </c>
       <c r="F56" t="n">
-        <v>6.934832993789105</v>
+        <v>7.128101568338666</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.015814314543365</v>
+        <v>-6.951845322858692</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.86369688849883</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.029210564817</v>
+        <v>-11.99675474607236</v>
       </c>
       <c r="F57" t="n">
-        <v>6.604645116120774</v>
+        <v>6.786418648775299</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.260417808535333</v>
+        <v>-7.192390202969725</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.216706807528759</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.6026109690222</v>
+        <v>-11.5683484124854</v>
       </c>
       <c r="F58" t="n">
-        <v>6.740438481195157</v>
+        <v>6.928103550128458</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.945747493088327</v>
+        <v>-7.903132047338508</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.584855462423125</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.51819180029875</v>
+        <v>-11.50529588199965</v>
       </c>
       <c r="F59" t="n">
-        <v>6.599670041040918</v>
+        <v>6.786025879690047</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.990640999532605</v>
+        <v>-7.934042974347824</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.964179685038409</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.2706425381674</v>
+        <v>-11.26298354100498</v>
       </c>
       <c r="F60" t="n">
-        <v>6.465866705998478</v>
+        <v>6.645624024015377</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.22877689592076</v>
+        <v>-8.173488101020151</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.339085256768055</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.31626921357081</v>
+        <v>-11.30973615445279</v>
       </c>
       <c r="F61" t="n">
-        <v>6.303234120098557</v>
+        <v>6.47741411710488</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.69130177071326</v>
+        <v>-8.64087022016693</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.708338718348961</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.34117077357577</v>
+        <v>-11.35781109048761</v>
       </c>
       <c r="F62" t="n">
-        <v>6.275033299777479</v>
+        <v>6.470501381204449</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.896405787031739</v>
+        <v>-8.852127618821022</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.061676978451764</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.98380327520802</v>
+        <v>-10.99387125609331</v>
       </c>
       <c r="F63" t="n">
-        <v>6.557984148792863</v>
+        <v>6.767932317162781</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.928992528804796</v>
+        <v>-8.888183820847136</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.400034467886169</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.78768057863896</v>
+        <v>-10.77689252109738</v>
       </c>
       <c r="F64" t="n">
-        <v>6.411533649205315</v>
+        <v>6.6213770791525</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.12250985710835</v>
+        <v>-9.087749793063566</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.719689436267963</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.8485336022473</v>
+        <v>-10.83274428502018</v>
       </c>
       <c r="F65" t="n">
-        <v>6.378253015381647</v>
+        <v>6.592626382112069</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.192160908226331</v>
+        <v>-9.157767428661117</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.021626852631526</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.57068875134019</v>
+        <v>-10.55137760464865</v>
       </c>
       <c r="F66" t="n">
-        <v>6.234866114659063</v>
+        <v>6.434576102206752</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.542445470756713</v>
+        <v>-9.522898662614015</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.307838857447828</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.81169186205069</v>
+        <v>-10.79202722318242</v>
       </c>
       <c r="F67" t="n">
-        <v>5.983991407605908</v>
+        <v>6.187341055343597</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.587901946223186</v>
+        <v>-9.568852645588475</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.576784046909832</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.91838103790791</v>
+        <v>-10.91574948503673</v>
       </c>
       <c r="F68" t="n">
-        <v>5.951810527220945</v>
+        <v>6.155500574832519</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.421983192309991</v>
+        <v>-9.399961938930208</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.834861118220855</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.70980756133638</v>
+        <v>-10.7057358551526</v>
       </c>
       <c r="F69" t="n">
-        <v>5.978597378835117</v>
+        <v>6.174458229347339</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.460003239762363</v>
+        <v>-9.427063005812581</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.076539776709865</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.94849333444388</v>
+        <v>-10.95041790296162</v>
       </c>
       <c r="F70" t="n">
-        <v>5.743381065980667</v>
+        <v>5.949087328229867</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.52377584690441</v>
+        <v>-9.509557606018296</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.31066156650844</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.93331935545032</v>
+        <v>-10.92910363393529</v>
       </c>
       <c r="F71" t="n">
-        <v>5.480828024792692</v>
+        <v>5.660899558077793</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.502540131695131</v>
+        <v>-9.484237092322399</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.529437083962032</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.00228960682054</v>
+        <v>-10.98962934997259</v>
       </c>
       <c r="F72" t="n">
-        <v>5.656212513660455</v>
+        <v>5.855922501208144</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.729822509027496</v>
+        <v>-9.727465894515985</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.741863389456091</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43982127548818</v>
+        <v>-11.43248958589681</v>
       </c>
       <c r="F73" t="n">
-        <v>5.749796294373112</v>
+        <v>5.958513786275909</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.523828216115778</v>
+        <v>-9.504032654219088</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.94174854566608</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56061086150594</v>
+        <v>-11.55473241753001</v>
       </c>
       <c r="F74" t="n">
-        <v>5.75600204592009</v>
+        <v>5.950946435233392</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.570593921866424</v>
+        <v>-9.557606357447431</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.132117528883027</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.06907662697006</v>
+        <v>-12.07055605719117</v>
       </c>
       <c r="F75" t="n">
-        <v>5.693970715055992</v>
+        <v>5.897817870301667</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.682166526683613</v>
+        <v>-9.687036863340735</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.308742320936185</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.03456531667927</v>
+        <v>-12.0122036634256</v>
       </c>
       <c r="F76" t="n">
-        <v>5.590201122732472</v>
+        <v>5.79119415595865</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.699225797286383</v>
+        <v>-9.715695914261273</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.469215097876772</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.6834460301209</v>
+        <v>-12.67776397068759</v>
       </c>
       <c r="F77" t="n">
-        <v>5.582895617746789</v>
+        <v>5.774724038983758</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.47559617244686</v>
+        <v>-9.486083107023081</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.613741365796258</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37657872716756</v>
+        <v>-13.37237609795536</v>
       </c>
       <c r="F78" t="n">
-        <v>5.650975592523764</v>
+        <v>5.841887552561813</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.919408963124653</v>
+        <v>-8.904365907159509</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.734250804234888</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.69631894716819</v>
+        <v>-13.67293609429287</v>
       </c>
       <c r="F79" t="n">
-        <v>5.834241647702245</v>
+        <v>6.026279545784683</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.062992248389863</v>
+        <v>-9.072196137287596</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.833183804592764</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.27901806974489</v>
+        <v>-14.26114707636594</v>
       </c>
       <c r="F80" t="n">
-        <v>5.85429905565577</v>
+        <v>6.039450402443459</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.514018897933447</v>
+        <v>-8.506935962096073</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.896294673096726</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.85977953150102</v>
+        <v>-14.84471029093019</v>
       </c>
       <c r="F81" t="n">
-        <v>5.91452364872771</v>
+        <v>6.112767298357126</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.388293513744351</v>
+        <v>-8.376890117969207</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.924591005638435</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.71461526094584</v>
+        <v>-15.69813205166811</v>
       </c>
       <c r="F82" t="n">
-        <v>5.911617157496846</v>
+        <v>6.117375788957413</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.276864924258421</v>
+        <v>-8.265081851700867</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.901447750100951</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.75068773862867</v>
+        <v>-16.72996262323022</v>
       </c>
       <c r="F83" t="n">
-        <v>6.078622572545904</v>
+        <v>6.288518371704456</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.117688706308714</v>
+        <v>-8.116248552996124</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.825478195974521</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.71815654942086</v>
+        <v>-17.68012340966565</v>
       </c>
       <c r="F84" t="n">
-        <v>6.001273247356987</v>
+        <v>6.2136042148441</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.760936546174521</v>
+        <v>-7.761708992042183</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.68510708523287</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.59109893369579</v>
+        <v>-18.55400843974518</v>
       </c>
       <c r="F85" t="n">
-        <v>6.25919161333899</v>
+        <v>6.461808092117542</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.567798894653378</v>
+        <v>-7.559825682222767</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.478364105978844</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.86830544511754</v>
+        <v>-19.8346582268143</v>
       </c>
       <c r="F86" t="n">
-        <v>6.131463106815111</v>
+        <v>6.329680571838844</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.551629900643847</v>
+        <v>-7.558189144367551</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.204811818188356</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.92325702349814</v>
+        <v>-20.88722700607771</v>
       </c>
       <c r="F87" t="n">
-        <v>6.187262501526547</v>
+        <v>6.395403932104308</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.080293906038866</v>
+        <v>-7.063745235246925</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.866477365645357</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.33996202169848</v>
+        <v>-22.28061461291693</v>
       </c>
       <c r="F88" t="n">
-        <v>6.476419102088909</v>
+        <v>6.694458313615015</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.138017869268037</v>
+        <v>-7.122451121189224</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.476101020328553</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.93063754005967</v>
+        <v>-23.890077585856</v>
       </c>
       <c r="F89" t="n">
-        <v>6.323474820291865</v>
+        <v>6.534522742100489</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.81636617305251</v>
+        <v>-6.797107395572332</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.03962085274631</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.27852939452389</v>
+        <v>-25.2057361907239</v>
       </c>
       <c r="F90" t="n">
-        <v>6.581078971005668</v>
+        <v>6.80864937900055</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.195113401960804</v>
+        <v>-7.18848869672289</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.577782174780574</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.01786801165288</v>
+        <v>-26.9480598529008</v>
       </c>
       <c r="F91" t="n">
-        <v>6.699511942511921</v>
+        <v>6.91969829170407</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.747278090956722</v>
+        <v>-6.736228187358305</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.09605673186179</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.00431075261661</v>
+        <v>-28.9359034702686</v>
       </c>
       <c r="F92" t="n">
-        <v>6.462986399373298</v>
+        <v>6.666152754871203</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.000470135612862</v>
+        <v>-6.991135323686712</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.613431700380606</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.86187286440639</v>
+        <v>-30.79243129013388</v>
       </c>
       <c r="F93" t="n">
-        <v>6.456256955712651</v>
+        <v>6.67196573733293</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.375731628611378</v>
+        <v>-6.33259249074789</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.132112377594661</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.87600582588037</v>
+        <v>-32.79891834674829</v>
       </c>
       <c r="F94" t="n">
-        <v>6.450758188519126</v>
+        <v>6.653374667297679</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.680926300154854</v>
+        <v>-6.658355170055718</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.660276304983383</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.16456654721977</v>
+        <v>-35.1050227538956</v>
       </c>
       <c r="F95" t="n">
-        <v>6.38252110610805</v>
+        <v>6.599853333280702</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.140122546671676</v>
+        <v>-6.090725288049843</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.191720404704575</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.56933454858233</v>
+        <v>-37.51824838289392</v>
       </c>
       <c r="F96" t="n">
-        <v>6.179564227455612</v>
+        <v>6.384563505351359</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.100753992026605</v>
+        <v>-6.043920305390673</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.724830819704903</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.58592886299056</v>
+        <v>-39.52548170077031</v>
       </c>
       <c r="F97" t="n">
-        <v>6.088337061254465</v>
+        <v>6.303495966155391</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.70287890866655</v>
+        <v>-5.639669270546697</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.246245794871053</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.00922247287416</v>
+        <v>-41.94476906598435</v>
       </c>
       <c r="F98" t="n">
-        <v>5.997424110321519</v>
+        <v>6.211718923234891</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.886432994507549</v>
+        <v>-5.82408744837525</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.758787740779317</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.31162175831727</v>
+        <v>-44.27083923496529</v>
       </c>
       <c r="F99" t="n">
-        <v>5.846810258430303</v>
+        <v>6.055501565727416</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.627846921080618</v>
+        <v>-5.561049991982132</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.246573205614639</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.45259294972189</v>
+        <v>-46.40505479810358</v>
       </c>
       <c r="F100" t="n">
-        <v>5.584231032636644</v>
+        <v>5.790487171605196</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.69514135768709</v>
+        <v>-5.62861936694828</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.73845802015102</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.89298510711679</v>
+        <v>-48.83907100401456</v>
       </c>
       <c r="F101" t="n">
-        <v>5.52230444019528</v>
+        <v>5.740684051595271</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.748230645710289</v>
+        <v>-5.672203643108386</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.19912201508988</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.29449312507175</v>
+        <v>-51.26426299781021</v>
       </c>
       <c r="F102" t="n">
-        <v>4.891857689154803</v>
+        <v>5.079313281242637</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.435560269244188</v>
+        <v>-5.354414176231169</v>
       </c>
     </row>
   </sheetData>
